--- a/output/M_18323970000193.xlsx
+++ b/output/M_18323970000193.xlsx
@@ -1362,10 +1362,10 @@
         <v>44165</v>
       </c>
       <c r="B89">
-        <v>3.64243431</v>
+        <v>3.68893038</v>
       </c>
       <c r="C89">
-        <v>0.007782174763532934</v>
+        <v>0.01787556702578308</v>
       </c>
     </row>
   </sheetData>

--- a/output/M_18323970000193.xlsx
+++ b/output/M_18323970000193.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>M SQUARE GLOBAL EQUITY MANAGERS INSTITUCIONAL FIC DE FI MULTIMERCADO INVESTIMENTO NO EXTERIOR</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,986 +383,722 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C89"/>
+  <dimension ref="A1:B89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>41517</v>
       </c>
       <c r="B2">
-        <v>-0.001642409999999983</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>41547</v>
       </c>
       <c r="B3">
-        <v>-0.03359045999999999</v>
-      </c>
-      <c r="C3">
         <v>-0.03200060811878036</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>41578</v>
       </c>
       <c r="B4">
-        <v>0.004909159999999968</v>
-      </c>
-      <c r="C4">
         <v>0.03983778968076002</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>41608</v>
       </c>
       <c r="B5">
-        <v>0.07377089000000003</v>
-      </c>
-      <c r="C5">
         <v>0.06852532819981461</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>41639</v>
       </c>
       <c r="B6">
-        <v>0.1085091600000001</v>
-      </c>
-      <c r="C6">
         <v>0.03235165930043049</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>41670</v>
       </c>
       <c r="B7">
-        <v>0.09400143999999999</v>
-      </c>
-      <c r="C7">
         <v>-0.01308759595635645</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>41698</v>
       </c>
       <c r="B8">
-        <v>0.09802175999999996</v>
-      </c>
-      <c r="C8">
         <v>0.003674876332886656</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>41729</v>
       </c>
       <c r="B9">
-        <v>0.0716005500000001</v>
-      </c>
-      <c r="C9">
         <v>-0.02406255591874595</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>41759</v>
       </c>
       <c r="B10">
-        <v>0.0586348000000001</v>
-      </c>
-      <c r="C10">
         <v>-0.01209942454770108</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>41790</v>
       </c>
       <c r="B11">
-        <v>0.0858559000000001</v>
-      </c>
-      <c r="C11">
         <v>0.02571339993735333</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>41820</v>
       </c>
       <c r="B12">
-        <v>0.08039006000000004</v>
-      </c>
-      <c r="C12">
         <v>-0.005033669753049197</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>41851</v>
       </c>
       <c r="B13">
-        <v>0.08287237000000003</v>
-      </c>
-      <c r="C13">
         <v>0.00229760536671364</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>41882</v>
       </c>
       <c r="B14">
-        <v>0.09814976000000009</v>
-      </c>
-      <c r="C14">
         <v>0.01410820926200196</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>41912</v>
       </c>
       <c r="B15">
-        <v>0.17975231</v>
-      </c>
-      <c r="C15">
         <v>0.07430912701742964</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>41943</v>
       </c>
       <c r="B16">
-        <v>0.19234621</v>
-      </c>
-      <c r="C16">
         <v>0.01067503737288722</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>41973</v>
       </c>
       <c r="B17">
-        <v>0.2894021200000001</v>
-      </c>
-      <c r="C17">
         <v>0.08139910135664374</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>42004</v>
       </c>
       <c r="B18">
-        <v>0.3212273800000001</v>
-      </c>
-      <c r="C18">
         <v>0.02468218370852382</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>42035</v>
       </c>
       <c r="B19">
-        <v>0.2978565900000001</v>
-      </c>
-      <c r="C19">
         <v>-0.01768869639985815</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>42063</v>
       </c>
       <c r="B20">
-        <v>0.45812922</v>
-      </c>
-      <c r="C20">
         <v>0.1234902463299121</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>42094</v>
       </c>
       <c r="B21">
-        <v>0.61828912</v>
-      </c>
-      <c r="C21">
         <v>0.1098393049142792</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>42124</v>
       </c>
       <c r="B22">
-        <v>0.53439378</v>
-      </c>
-      <c r="C22">
         <v>-0.05184199718280258</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>42155</v>
       </c>
       <c r="B23">
-        <v>0.65814507</v>
-      </c>
-      <c r="C23">
         <v>0.08065158475811862</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>42185</v>
       </c>
       <c r="B24">
-        <v>0.57488914</v>
-      </c>
-      <c r="C24">
         <v>-0.0502102810582189</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>42216</v>
       </c>
       <c r="B25">
-        <v>0.7887638299999999</v>
-      </c>
-      <c r="C25">
         <v>0.1358030127758707</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>42247</v>
       </c>
       <c r="B26">
-        <v>0.78708573</v>
-      </c>
-      <c r="C26">
         <v>-0.0009381339066990568</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>42277</v>
       </c>
       <c r="B27">
-        <v>0.8862380999999999</v>
-      </c>
-      <c r="C27">
         <v>0.05548271598587484</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>42308</v>
       </c>
       <c r="B28">
-        <v>0.96471163</v>
-      </c>
-      <c r="C28">
         <v>0.04160319420968128</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>42338</v>
       </c>
       <c r="B29">
-        <v>0.9808844400000001</v>
-      </c>
-      <c r="C29">
         <v>0.008231645679218635</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>42369</v>
       </c>
       <c r="B30">
-        <v>0.9897133499999999</v>
-      </c>
-      <c r="C30">
         <v>0.004457054546806338</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>42400</v>
       </c>
       <c r="B31">
-        <v>0.8423941699999999</v>
-      </c>
-      <c r="C31">
         <v>-0.07404040386018418</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>42429</v>
       </c>
       <c r="B32">
-        <v>0.8365860899999999</v>
-      </c>
-      <c r="C32">
         <v>-0.00315246329725416</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>42460</v>
       </c>
       <c r="B33">
-        <v>0.76161112</v>
-      </c>
-      <c r="C33">
         <v>-0.04082300873791322</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>42490</v>
       </c>
       <c r="B34">
-        <v>0.7000113100000001</v>
-      </c>
-      <c r="C34">
         <v>-0.0349678821282644</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>42521</v>
       </c>
       <c r="B35">
-        <v>0.8126489299999999</v>
-      </c>
-      <c r="C35">
         <v>0.06625698272560299</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>42551</v>
       </c>
       <c r="B36">
-        <v>0.54822423</v>
-      </c>
-      <c r="C36">
         <v>-0.1458775031522513</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>42582</v>
       </c>
       <c r="B37">
-        <v>0.63505363</v>
-      </c>
-      <c r="C37">
         <v>0.05608321993513821</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>42613</v>
       </c>
       <c r="B38">
-        <v>0.6546915499999999</v>
-      </c>
-      <c r="C38">
         <v>0.01201056628338226</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>42643</v>
       </c>
       <c r="B39">
-        <v>0.6684769800000001</v>
-      </c>
-      <c r="C39">
         <v>0.008331117663591181</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>42674</v>
       </c>
       <c r="B40">
-        <v>0.6210289</v>
-      </c>
-      <c r="C40">
         <v>-0.028437959030157</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>42704</v>
       </c>
       <c r="B41">
-        <v>0.7736505899999999</v>
-      </c>
-      <c r="C41">
         <v>0.09415112216691512</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>42735</v>
       </c>
       <c r="B42">
-        <v>0.7257945299999999</v>
-      </c>
-      <c r="C42">
         <v>-0.0269816728671457</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>42766</v>
       </c>
       <c r="B43">
-        <v>0.7341840100000001</v>
-      </c>
-      <c r="C43">
         <v>0.004861227599324947</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>42794</v>
       </c>
       <c r="B44">
-        <v>0.76418304</v>
-      </c>
-      <c r="C44">
         <v>0.01729864295081351</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>42825</v>
       </c>
       <c r="B45">
-        <v>0.79340429</v>
-      </c>
-      <c r="C45">
         <v>0.01656361575724019</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>42855</v>
       </c>
       <c r="B46">
-        <v>0.8672058199999999</v>
-      </c>
-      <c r="C46">
         <v>0.04115164127325688</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>42886</v>
       </c>
       <c r="B47">
-        <v>0.93521722</v>
-      </c>
-      <c r="C47">
         <v>0.03642415810379163</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>42916</v>
       </c>
       <c r="B48">
-        <v>0.9935137599999999</v>
-      </c>
-      <c r="C48">
         <v>0.03012402917745849</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>42947</v>
       </c>
       <c r="B49">
-        <v>0.93191307</v>
-      </c>
-      <c r="C49">
         <v>-0.03090055922162283</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>42978</v>
       </c>
       <c r="B50">
-        <v>0.9448667500000001</v>
-      </c>
-      <c r="C50">
         <v>0.006705105007649204</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>43008</v>
       </c>
       <c r="B51">
-        <v>0.97320977</v>
-      </c>
-      <c r="C51">
         <v>0.01457324518504932</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>43039</v>
       </c>
       <c r="B52">
-        <v>1.0926612</v>
-      </c>
-      <c r="C52">
         <v>0.06053660985065989</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>43069</v>
       </c>
       <c r="B53">
-        <v>1.1319136</v>
-      </c>
-      <c r="C53">
         <v>0.01875716910123804</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="2">
         <v>43100</v>
       </c>
       <c r="B54">
-        <v>1.15969722</v>
-      </c>
-      <c r="C54">
         <v>0.01303224483393706</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:2">
       <c r="A55" s="2">
         <v>43131</v>
       </c>
       <c r="B55">
-        <v>1.21843804</v>
-      </c>
-      <c r="C55">
         <v>0.02719863666815292</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:2">
       <c r="A56" s="2">
         <v>43159</v>
       </c>
       <c r="B56">
-        <v>1.20998019</v>
-      </c>
-      <c r="C56">
         <v>-0.003812524779822191</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:2">
       <c r="A57" s="2">
         <v>43190</v>
       </c>
       <c r="B57">
-        <v>1.15747643</v>
-      </c>
-      <c r="C57">
         <v>-0.02375757042419457</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:2">
       <c r="A58" s="2">
         <v>43220</v>
       </c>
       <c r="B58">
-        <v>1.30950999</v>
-      </c>
-      <c r="C58">
         <v>0.0704682368186984</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:2">
       <c r="A59" s="2">
         <v>43251</v>
       </c>
       <c r="B59">
-        <v>1.50020894</v>
-      </c>
-      <c r="C59">
         <v>0.08257117346351017</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:2">
       <c r="A60" s="2">
         <v>43281</v>
       </c>
       <c r="B60">
-        <v>1.60318102</v>
-      </c>
-      <c r="C60">
         <v>0.04118538988985465</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="2">
         <v>43312</v>
       </c>
       <c r="B61">
-        <v>1.60619284</v>
-      </c>
-      <c r="C61">
         <v>0.001156976782198393</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:2">
       <c r="A62" s="2">
         <v>43343</v>
       </c>
       <c r="B62">
-        <v>1.87487921</v>
-      </c>
-      <c r="C62">
         <v>0.1030953526831115</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:2">
       <c r="A63" s="2">
         <v>43373</v>
       </c>
       <c r="B63">
-        <v>1.86131023</v>
-      </c>
-      <c r="C63">
         <v>-0.004719843516486355</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:2">
       <c r="A64" s="2">
         <v>43404</v>
       </c>
       <c r="B64">
-        <v>1.42592647</v>
-      </c>
-      <c r="C64">
         <v>-0.1521623749270977</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:2">
       <c r="A65" s="2">
         <v>43434</v>
       </c>
       <c r="B65">
-        <v>1.58517886</v>
-      </c>
-      <c r="C65">
         <v>0.06564600863603265</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:2">
       <c r="A66" s="2">
         <v>43465</v>
       </c>
       <c r="B66">
-        <v>1.34355703</v>
-      </c>
-      <c r="C66">
         <v>-0.09346426034135225</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:2">
       <c r="A67" s="2">
         <v>43496</v>
       </c>
       <c r="B67">
-        <v>1.41239759</v>
-      </c>
-      <c r="C67">
         <v>0.02937439077383996</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:2">
       <c r="A68" s="2">
         <v>43524</v>
       </c>
       <c r="B68">
-        <v>1.55914646</v>
-      </c>
-      <c r="C68">
         <v>0.06083112941594337</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:2">
       <c r="A69" s="2">
         <v>43555</v>
       </c>
       <c r="B69">
-        <v>1.68376118</v>
-      </c>
-      <c r="C69">
         <v>0.04869386021775401</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:2">
       <c r="A70" s="2">
         <v>43585</v>
       </c>
       <c r="B70">
-        <v>1.84730917</v>
-      </c>
-      <c r="C70">
         <v>0.06093984487844772</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:2">
       <c r="A71" s="2">
         <v>43616</v>
       </c>
       <c r="B71">
-        <v>1.67859472</v>
-      </c>
-      <c r="C71">
         <v>-0.05925399734514958</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:2">
       <c r="A72" s="2">
         <v>43646</v>
       </c>
       <c r="B72">
-        <v>1.77987092</v>
-      </c>
-      <c r="C72">
         <v>0.03780945256249901</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:2">
       <c r="A73" s="2">
         <v>43677</v>
       </c>
       <c r="B73">
-        <v>1.77160295</v>
-      </c>
-      <c r="C73">
         <v>-0.002974228026386139</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:2">
       <c r="A74" s="2">
         <v>43708</v>
       </c>
       <c r="B74">
-        <v>1.95780242</v>
-      </c>
-      <c r="C74">
         <v>0.06718114872839198</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:2">
       <c r="A75" s="2">
         <v>43738</v>
       </c>
       <c r="B75">
-        <v>1.94823376</v>
-      </c>
-      <c r="C75">
         <v>-0.003235057194929225</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:2">
       <c r="A76" s="2">
         <v>43769</v>
       </c>
       <c r="B76">
-        <v>1.9390777</v>
-      </c>
-      <c r="C76">
         <v>-0.003105608559343054</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:2">
       <c r="A77" s="2">
         <v>43799</v>
       </c>
       <c r="B77">
-        <v>2.18552554</v>
-      </c>
-      <c r="C77">
         <v>0.08385210094990003</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:2">
       <c r="A78" s="2">
         <v>43830</v>
       </c>
       <c r="B78">
-        <v>2.109646</v>
-      </c>
-      <c r="C78">
         <v>-0.02382010096833187</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:2">
       <c r="A79" s="2">
         <v>43861</v>
       </c>
       <c r="B79">
-        <v>2.33909787</v>
-      </c>
-      <c r="C79">
         <v>0.07378713525591007</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:2">
       <c r="A80" s="2">
         <v>43890</v>
       </c>
       <c r="B80">
-        <v>2.22552886</v>
-      </c>
-      <c r="C80">
         <v>-0.03401188417397305</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:2">
       <c r="A81" s="2">
         <v>43921</v>
       </c>
       <c r="B81">
-        <v>2.18892082</v>
-      </c>
-      <c r="C81">
         <v>-0.0113494690604008</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:2">
       <c r="A82" s="2">
         <v>43951</v>
       </c>
       <c r="B82">
-        <v>2.70136267</v>
-      </c>
-      <c r="C82">
         <v>0.160694441450572</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:2">
       <c r="A83" s="2">
         <v>43982</v>
       </c>
       <c r="B83">
-        <v>2.84352815</v>
-      </c>
-      <c r="C83">
         <v>0.03840895709903513</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:2">
       <c r="A84" s="2">
         <v>44012</v>
       </c>
       <c r="B84">
-        <v>3.05368322</v>
-      </c>
-      <c r="C84">
         <v>0.05467764558976884</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:2">
       <c r="A85" s="2">
         <v>44043</v>
       </c>
       <c r="B85">
-        <v>3.15871405</v>
-      </c>
-      <c r="C85">
         <v>0.02590997478091062</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:2">
       <c r="A86" s="2">
         <v>44074</v>
       </c>
       <c r="B86">
-        <v>3.62182596</v>
-      </c>
-      <c r="C86">
         <v>0.1113594020728594</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:2">
       <c r="A87" s="2">
         <v>44104</v>
       </c>
       <c r="B87">
-        <v>3.62944072</v>
-      </c>
-      <c r="C87">
         <v>0.001647565283916519</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:2">
       <c r="A88" s="2">
         <v>44135</v>
       </c>
       <c r="B88">
-        <v>3.60658506</v>
-      </c>
-      <c r="C88">
         <v>-0.004937024012697688</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:2">
       <c r="A89" s="2">
         <v>44165</v>
       </c>
       <c r="B89">
-        <v>3.68893038</v>
-      </c>
-      <c r="C89">
-        <v>0.01787556702578308</v>
+        <v>0.02416391286607444</v>
       </c>
     </row>
   </sheetData>
